--- a/MVPLT/data/净值.xlsx
+++ b/MVPLT/data/净值.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,6 +695,306 @@
         <v>0.996276646423445</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B16">
+        <v>0.9925153472623629</v>
+      </c>
+      <c r="C16">
+        <v>0.9974616619149123</v>
+      </c>
+      <c r="D16">
+        <v>0.9945611296753566</v>
+      </c>
+      <c r="E16">
+        <v>0.9968607526932177</v>
+      </c>
+      <c r="F16">
+        <v>0.9957622469788862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B17">
+        <v>0.9920565424812672</v>
+      </c>
+      <c r="C17">
+        <v>0.9973405771346681</v>
+      </c>
+      <c r="D17">
+        <v>0.9942859341643904</v>
+      </c>
+      <c r="E17">
+        <v>0.9966557332887799</v>
+      </c>
+      <c r="F17">
+        <v>0.995513393205678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B18">
+        <v>0.9898434719555304</v>
+      </c>
+      <c r="C18">
+        <v>0.9965355271466089</v>
+      </c>
+      <c r="D18">
+        <v>0.9927363236416978</v>
+      </c>
+      <c r="E18">
+        <v>0.9950806537630117</v>
+      </c>
+      <c r="F18">
+        <v>0.9939662902612491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B19">
+        <v>0.9885623386012414</v>
+      </c>
+      <c r="C19">
+        <v>0.9961509027100314</v>
+      </c>
+      <c r="D19">
+        <v>0.9918207040738516</v>
+      </c>
+      <c r="E19">
+        <v>0.9948356951909736</v>
+      </c>
+      <c r="F19">
+        <v>0.9933847326514791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B20">
+        <v>0.9908788342050476</v>
+      </c>
+      <c r="C20">
+        <v>0.9969274993094992</v>
+      </c>
+      <c r="D20">
+        <v>0.9934434135434854</v>
+      </c>
+      <c r="E20">
+        <v>0.9960036160932895</v>
+      </c>
+      <c r="F20">
+        <v>0.9947743777626591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B21">
+        <v>0.994152850120537</v>
+      </c>
+      <c r="C21">
+        <v>0.9979495271557535</v>
+      </c>
+      <c r="D21">
+        <v>0.9956717840722712</v>
+      </c>
+      <c r="E21">
+        <v>0.9974054558842205</v>
+      </c>
+      <c r="F21">
+        <v>0.996599530143111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B22">
+        <v>0.9907166327883138</v>
+      </c>
+      <c r="C22">
+        <v>0.9967059515748696</v>
+      </c>
+      <c r="D22">
+        <v>0.9931257600292275</v>
+      </c>
+      <c r="E22">
+        <v>0.9956317634284536</v>
+      </c>
+      <c r="F22">
+        <v>0.9944785097849804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B23">
+        <v>0.9915445967346209</v>
+      </c>
+      <c r="C23">
+        <v>0.9969185568888983</v>
+      </c>
+      <c r="D23">
+        <v>0.9936927103777574</v>
+      </c>
+      <c r="E23">
+        <v>0.995643297626931</v>
+      </c>
+      <c r="F23">
+        <v>0.9947766484592329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B24">
+        <v>0.9916526968570896</v>
+      </c>
+      <c r="C24">
+        <v>0.9970493886011772</v>
+      </c>
+      <c r="D24">
+        <v>0.9938429002894259</v>
+      </c>
+      <c r="E24">
+        <v>0.9960403576283955</v>
+      </c>
+      <c r="F24">
+        <v>0.9950277653328925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B25">
+        <v>0.9903639241606051</v>
+      </c>
+      <c r="C25">
+        <v>0.9967487322878841</v>
+      </c>
+      <c r="D25">
+        <v>0.9930610654801215</v>
+      </c>
+      <c r="E25">
+        <v>0.9957864654182131</v>
+      </c>
+      <c r="F25">
+        <v>0.9944804820835336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B26">
+        <v>0.9907886200065344</v>
+      </c>
+      <c r="C26">
+        <v>0.9969750017173613</v>
+      </c>
+      <c r="D26">
+        <v>0.993457890942151</v>
+      </c>
+      <c r="E26">
+        <v>0.9961550719456288</v>
+      </c>
+      <c r="F26">
+        <v>0.9948386486400441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B27">
+        <v>0.9931966223837383</v>
+      </c>
+      <c r="C27">
+        <v>0.9977700973019703</v>
+      </c>
+      <c r="D27">
+        <v>0.9951681313627698</v>
+      </c>
+      <c r="E27">
+        <v>0.9971766991421541</v>
+      </c>
+      <c r="F27">
+        <v>0.9961976572815948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B28">
+        <v>0.9933048236157933</v>
+      </c>
+      <c r="C28">
+        <v>0.9978312881897673</v>
+      </c>
+      <c r="D28">
+        <v>0.9952185098348127</v>
+      </c>
+      <c r="E28">
+        <v>0.9975237947197245</v>
+      </c>
+      <c r="F28">
+        <v>0.996395282772765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B29">
+        <v>0.9951724403084857</v>
+      </c>
+      <c r="C29">
+        <v>0.9984381112711112</v>
+      </c>
+      <c r="D29">
+        <v>0.9965219834855276</v>
+      </c>
+      <c r="E29">
+        <v>0.998349438271151</v>
+      </c>
+      <c r="F29">
+        <v>0.9974582220115117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B30">
+        <v>0.9957367924254946</v>
+      </c>
+      <c r="C30">
+        <v>1.000406591787514</v>
+      </c>
+      <c r="D30">
+        <v>0.9971213837477525</v>
+      </c>
+      <c r="E30">
+        <v>1.000227550376737</v>
+      </c>
+      <c r="F30">
+        <v>0.9988806309578019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVPLT/data/净值.xlsx
+++ b/MVPLT/data/净值.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,582 +417,862 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43053</v>
+        <v>43052</v>
       </c>
       <c r="B2">
-        <v>0.996822732055351</v>
+        <v>1.000465205095587</v>
       </c>
       <c r="C2">
-        <v>0.9987783080465028</v>
+        <v>0.9998744961766426</v>
       </c>
       <c r="D2">
-        <v>0.9975895593798748</v>
+        <v>1.000029737613386</v>
       </c>
       <c r="E2">
-        <v>0.9980990333803648</v>
+        <v>0.9998345983947482</v>
       </c>
       <c r="F2">
-        <v>0.9978978514422983</v>
+        <v>0.9999919881586338</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>43054</v>
+        <v>43053</v>
       </c>
       <c r="B3">
-        <v>0.9951659744192413</v>
+        <v>0.9969691506109727</v>
       </c>
       <c r="C3">
-        <v>0.9982341624618644</v>
+        <v>0.9978235673130772</v>
       </c>
       <c r="D3">
-        <v>0.9964163463428994</v>
+        <v>0.9973295817485466</v>
       </c>
       <c r="E3">
-        <v>0.9973989067692378</v>
+        <v>0.9972399146957748</v>
       </c>
       <c r="F3">
-        <v>0.9969658969411895</v>
+        <v>0.9973131963368839</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>43055</v>
+        <v>43054</v>
       </c>
       <c r="B4">
-        <v>0.9962200348044616</v>
+        <v>0.9944380365210961</v>
       </c>
       <c r="C4">
-        <v>0.9986347691108467</v>
+        <v>0.9965185026753213</v>
       </c>
       <c r="D4">
-        <v>0.9972881180155754</v>
+        <v>0.9954918014755463</v>
       </c>
       <c r="E4">
-        <v>0.9976689815006693</v>
+        <v>0.9958026135995213</v>
       </c>
       <c r="F4">
-        <v>0.9975119352474838</v>
+        <v>0.9956281687837005</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>43056</v>
+        <v>43055</v>
       </c>
       <c r="B5">
-        <v>0.9968565814330896</v>
+        <v>0.9965190515262434</v>
       </c>
       <c r="C5">
-        <v>0.9989618082717742</v>
+        <v>0.9977129472083175</v>
       </c>
       <c r="D5">
-        <v>0.9977773495040883</v>
+        <v>0.9971412605825039</v>
       </c>
       <c r="E5">
-        <v>0.9986084363856194</v>
+        <v>0.9968865223479888</v>
       </c>
       <c r="F5">
-        <v>0.9982031447643293</v>
+        <v>0.9970165078990857</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>43059</v>
+        <v>43056</v>
       </c>
       <c r="B6">
-        <v>0.9975851499910817</v>
+        <v>0.9958235079027847</v>
       </c>
       <c r="C6">
-        <v>0.9991571131407411</v>
+        <v>0.9974780908674306</v>
       </c>
       <c r="D6">
-        <v>0.9982917009188164</v>
+        <v>0.9966643572822097</v>
       </c>
       <c r="E6">
-        <v>0.9986078393652114</v>
+        <v>0.9971413613471342</v>
       </c>
       <c r="F6">
-        <v>0.9984645608053008</v>
+        <v>0.9968764631168604</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>43060</v>
+        <v>43059</v>
       </c>
       <c r="B7">
-        <v>1.00027134029818</v>
+        <v>0.9977050391017118</v>
       </c>
       <c r="C7">
-        <v>0.9999427148171228</v>
+        <v>0.9984108747689414</v>
       </c>
       <c r="D7">
-        <v>1.000062588775193</v>
+        <v>0.9980358349226085</v>
       </c>
       <c r="E7">
-        <v>0.9996376862524315</v>
+        <v>0.9979211526440745</v>
       </c>
       <c r="F7">
-        <v>0.9998862076688236</v>
+        <v>0.9979921852679453</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>43061</v>
+        <v>43060</v>
       </c>
       <c r="B8">
-        <v>1.000324900366968</v>
+        <v>1.002031879924436</v>
       </c>
       <c r="C8">
-        <v>0.9996729988310248</v>
+        <v>1.00048583263507</v>
       </c>
       <c r="D8">
-        <v>0.9996213939816552</v>
+        <v>1.001042615740704</v>
       </c>
       <c r="E8">
-        <v>0.9997559374258778</v>
+        <v>1.000214558822154</v>
       </c>
       <c r="F8">
-        <v>0.9998204664238137</v>
+        <v>1.000745411942813</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>43062</v>
+        <v>43061</v>
       </c>
       <c r="B9">
-        <v>0.9950138846433123</v>
+        <v>1.001743553800955</v>
       </c>
       <c r="C9">
-        <v>0.9979363578199983</v>
+        <v>0.9998092532976138</v>
       </c>
       <c r="D9">
-        <v>0.9957934160403801</v>
+        <v>1.000318398459107</v>
       </c>
       <c r="E9">
-        <v>0.9978584336101536</v>
+        <v>0.9998909611241935</v>
       </c>
       <c r="F9">
-        <v>0.996980822654874</v>
+        <v>1.000291205268811</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>43063</v>
+        <v>43062</v>
       </c>
       <c r="B10">
-        <v>0.9960218092910792</v>
+        <v>0.9927273446770069</v>
       </c>
       <c r="C10">
-        <v>0.9984229632839652</v>
+        <v>0.9951367506698546</v>
       </c>
       <c r="D10">
-        <v>0.9966897689344446</v>
+        <v>0.993700848586142</v>
       </c>
       <c r="E10">
-        <v>0.9985757850216865</v>
+        <v>0.9950717245011496</v>
       </c>
       <c r="F10">
-        <v>0.9977417825874998</v>
+        <v>0.9944097186404183</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>43066</v>
+        <v>43063</v>
       </c>
       <c r="B11">
-        <v>0.9934307512730446</v>
+        <v>0.9935884427567695</v>
       </c>
       <c r="C11">
-        <v>0.9976089216582705</v>
+        <v>0.9958215198097397</v>
       </c>
       <c r="D11">
-        <v>0.9948991125019743</v>
+        <v>0.9945160606807885</v>
       </c>
       <c r="E11">
-        <v>0.9975461275880918</v>
+        <v>0.9959293294614782</v>
       </c>
       <c r="F11">
-        <v>0.9963284082651573</v>
+        <v>0.9952288469857486</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>43067</v>
+        <v>43066</v>
       </c>
       <c r="B12">
-        <v>0.9940822918113061</v>
+        <v>0.9894771702466234</v>
       </c>
       <c r="C12">
-        <v>0.9977613056524902</v>
+        <v>0.9937604676307437</v>
       </c>
       <c r="D12">
-        <v>0.9953014554120644</v>
+        <v>0.9915779703721738</v>
       </c>
       <c r="E12">
-        <v>0.997645301532737</v>
+        <v>0.9936800892425541</v>
       </c>
       <c r="F12">
-        <v>0.9965931687178422</v>
+        <v>0.9925493511032204</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>43068</v>
+        <v>43067</v>
       </c>
       <c r="B13">
-        <v>0.9937621217706338</v>
+        <v>0.9908957544489368</v>
       </c>
       <c r="C13">
-        <v>0.9976810417173887</v>
+        <v>0.9944052181739109</v>
       </c>
       <c r="D13">
-        <v>0.9951561297786277</v>
+        <v>0.9925489195306495</v>
       </c>
       <c r="E13">
-        <v>0.9973226667567838</v>
+        <v>0.9942904574103153</v>
       </c>
       <c r="F13">
-        <v>0.9963472779472484</v>
+        <v>0.9933789943449138</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>43069</v>
+        <v>43068</v>
       </c>
       <c r="B14">
-        <v>0.991601734167801</v>
+        <v>0.9908975532687584</v>
       </c>
       <c r="C14">
-        <v>0.9970233473492305</v>
+        <v>0.994475170411556</v>
       </c>
       <c r="D14">
-        <v>0.9937025764929164</v>
+        <v>0.9926408677708404</v>
       </c>
       <c r="E14">
-        <v>0.9964380248418396</v>
+        <v>0.9941580771664228</v>
       </c>
       <c r="F14">
-        <v>0.9951677220105775</v>
+        <v>0.9933486418510293</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>43070</v>
+        <v>43069</v>
       </c>
       <c r="B15">
-        <v>0.9931057107903646</v>
+        <v>0.9876639868340492</v>
       </c>
       <c r="C15">
-        <v>0.9976397598869999</v>
+        <v>0.993545459535193</v>
       </c>
       <c r="D15">
-        <v>0.9948519022858712</v>
+        <v>0.990410712002682</v>
       </c>
       <c r="E15">
-        <v>0.9975688317948318</v>
+        <v>0.9929089259145214</v>
       </c>
       <c r="F15">
-        <v>0.996276646423445</v>
+        <v>0.9916173138263447</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>43073</v>
+        <v>43070</v>
       </c>
       <c r="B16">
-        <v>0.9925153472623629</v>
+        <v>0.9887467714819561</v>
       </c>
       <c r="C16">
-        <v>0.9974616619149123</v>
+        <v>0.9942582936096248</v>
       </c>
       <c r="D16">
-        <v>0.9945611296753566</v>
+        <v>0.9912776674247628</v>
       </c>
       <c r="E16">
-        <v>0.9968607526932177</v>
+        <v>0.9940323312714162</v>
       </c>
       <c r="F16">
-        <v>0.9957622469788862</v>
+        <v>0.9926121212823812</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>43074</v>
+        <v>43073</v>
       </c>
       <c r="B17">
-        <v>0.9920565424812672</v>
+        <v>0.9890264848455064</v>
       </c>
       <c r="C17">
-        <v>0.9973405771346681</v>
+        <v>0.9944905603353399</v>
       </c>
       <c r="D17">
-        <v>0.9942859341643904</v>
+        <v>0.9916256021413101</v>
       </c>
       <c r="E17">
-        <v>0.9966557332887799</v>
+        <v>0.9938273805721666</v>
       </c>
       <c r="F17">
-        <v>0.995513393205678</v>
+        <v>0.9926756571793687</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>43075</v>
+        <v>43074</v>
       </c>
       <c r="B18">
-        <v>0.9898434719555304</v>
+        <v>0.9883671728080351</v>
       </c>
       <c r="C18">
-        <v>0.9965355271466089</v>
+        <v>0.994205041399045</v>
       </c>
       <c r="D18">
-        <v>0.9927363236416978</v>
+        <v>0.9912001828696659</v>
       </c>
       <c r="E18">
-        <v>0.9950806537630117</v>
+        <v>0.9934682968586628</v>
       </c>
       <c r="F18">
-        <v>0.9939662902612491</v>
+        <v>0.9922630605868473</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>43076</v>
+        <v>43075</v>
       </c>
       <c r="B19">
-        <v>0.9885623386012414</v>
+        <v>0.9865954964744355</v>
       </c>
       <c r="C19">
-        <v>0.9961509027100314</v>
+        <v>0.9932333366989636</v>
       </c>
       <c r="D19">
-        <v>0.9918207040738516</v>
+        <v>0.9899439655515053</v>
       </c>
       <c r="E19">
-        <v>0.9948356951909736</v>
+        <v>0.9918694326697588</v>
       </c>
       <c r="F19">
-        <v>0.9933847326514791</v>
+        <v>0.9908088165602855</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>43077</v>
+        <v>43076</v>
       </c>
       <c r="B20">
-        <v>0.9908788342050476</v>
+        <v>0.9838917521659826</v>
       </c>
       <c r="C20">
-        <v>0.9969274993094992</v>
+        <v>0.9918660602020249</v>
       </c>
       <c r="D20">
-        <v>0.9934434135434854</v>
+        <v>0.9879665703864043</v>
       </c>
       <c r="E20">
-        <v>0.9960036160932895</v>
+        <v>0.990609080252797</v>
       </c>
       <c r="F20">
-        <v>0.9947743777626591</v>
+        <v>0.9891350230676035</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>43080</v>
+        <v>43077</v>
       </c>
       <c r="B21">
-        <v>0.994152850120537</v>
+        <v>0.9869528402613198</v>
       </c>
       <c r="C21">
-        <v>0.9979495271557535</v>
+        <v>0.9934491209144053</v>
       </c>
       <c r="D21">
-        <v>0.9956717840722712</v>
+        <v>0.9901681318600575</v>
       </c>
       <c r="E21">
-        <v>0.9974054558842205</v>
+        <v>0.9925165487202962</v>
       </c>
       <c r="F21">
-        <v>0.996599530143111</v>
+        <v>0.9912480854867295</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>43081</v>
+        <v>43080</v>
       </c>
       <c r="B22">
-        <v>0.9907166327883138</v>
+        <v>0.9918804833925078</v>
       </c>
       <c r="C22">
-        <v>0.9967059515748696</v>
+        <v>0.9958956139655486</v>
       </c>
       <c r="D22">
-        <v>0.9931257600292275</v>
+        <v>0.9936532636101058</v>
       </c>
       <c r="E22">
-        <v>0.9956317634284536</v>
+        <v>0.995288633668823</v>
       </c>
       <c r="F22">
-        <v>0.9944785097849804</v>
+        <v>0.9944845308259187</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>43082</v>
+        <v>43081</v>
       </c>
       <c r="B23">
-        <v>0.9915445967346209</v>
+        <v>0.9874081930083406</v>
       </c>
       <c r="C23">
-        <v>0.9969185568888983</v>
+        <v>0.9934246845749951</v>
       </c>
       <c r="D23">
-        <v>0.9936927103777574</v>
+        <v>0.9902917459958854</v>
       </c>
       <c r="E23">
-        <v>0.995643297626931</v>
+        <v>0.9923875813177061</v>
       </c>
       <c r="F23">
-        <v>0.9947766484592329</v>
+        <v>0.9912913378620594</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>43083</v>
+        <v>43082</v>
       </c>
       <c r="B24">
-        <v>0.9916526968570896</v>
+        <v>0.9895110432966724</v>
       </c>
       <c r="C24">
-        <v>0.9970493886011772</v>
+        <v>0.994448158804823</v>
       </c>
       <c r="D24">
-        <v>0.9938429002894259</v>
+        <v>0.9918056271842147</v>
       </c>
       <c r="E24">
-        <v>0.9960403576283955</v>
+        <v>0.9932559783192402</v>
       </c>
       <c r="F24">
-        <v>0.9950277653328925</v>
+        <v>0.9925306833244917</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>43084</v>
+        <v>43083</v>
       </c>
       <c r="B25">
-        <v>0.9903639241606051</v>
+        <v>0.9888164780657239</v>
       </c>
       <c r="C25">
-        <v>0.9967487322878841</v>
+        <v>0.9942151550225397</v>
       </c>
       <c r="D25">
-        <v>0.9930610654801215</v>
+        <v>0.9913734004884125</v>
       </c>
       <c r="E25">
-        <v>0.9957864654182131</v>
+        <v>0.9932299929882663</v>
       </c>
       <c r="F25">
-        <v>0.9944804820835336</v>
+        <v>0.9922712837113025</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>43087</v>
+        <v>43084</v>
       </c>
       <c r="B26">
-        <v>0.9907886200065344</v>
+        <v>0.9861535356804441</v>
       </c>
       <c r="C26">
-        <v>0.9969750017173613</v>
+        <v>0.9930249718576137</v>
       </c>
       <c r="D26">
-        <v>0.993457890942151</v>
+        <v>0.9895749922631203</v>
       </c>
       <c r="E26">
-        <v>0.9961550719456288</v>
+        <v>0.9920599710919015</v>
       </c>
       <c r="F26">
-        <v>0.9948386486400441</v>
+        <v>0.9907108526363785</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>43088</v>
+        <v>43087</v>
       </c>
       <c r="B27">
-        <v>0.9931966223837383</v>
+        <v>0.9863554035647589</v>
       </c>
       <c r="C27">
-        <v>0.9977700973019703</v>
+        <v>0.9932599776627046</v>
       </c>
       <c r="D27">
-        <v>0.9951681313627698</v>
+        <v>0.9898208144702856</v>
       </c>
       <c r="E27">
-        <v>0.9971766991421541</v>
+        <v>0.9924022134049063</v>
       </c>
       <c r="F27">
-        <v>0.9961976572815948</v>
+        <v>0.990990453641833</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="B28">
-        <v>0.9933048236157933</v>
+        <v>0.9900228787874841</v>
       </c>
       <c r="C28">
-        <v>0.9978312881897673</v>
+        <v>0.9951601273064237</v>
       </c>
       <c r="D28">
-        <v>0.9952185098348127</v>
+        <v>0.9924913462088526</v>
       </c>
       <c r="E28">
-        <v>0.9975237947197245</v>
+        <v>0.9944935242984922</v>
       </c>
       <c r="F28">
-        <v>0.996395282772765</v>
+        <v>0.9934404617007805</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>43090</v>
+        <v>43089</v>
       </c>
       <c r="B29">
-        <v>0.9951724403084857</v>
+        <v>0.9894264397288232</v>
       </c>
       <c r="C29">
-        <v>0.9984381112711112</v>
+        <v>0.9948592286603253</v>
       </c>
       <c r="D29">
-        <v>0.9965219834855276</v>
+        <v>0.9920243190239681</v>
       </c>
       <c r="E29">
-        <v>0.998349438271151</v>
+        <v>0.9944242081703758</v>
       </c>
       <c r="F29">
-        <v>0.9974582220115117</v>
+        <v>0.9931605603752102</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B30">
+        <v>0.9921819569266017</v>
+      </c>
+      <c r="C30">
+        <v>0.9962647790596765</v>
+      </c>
+      <c r="D30">
+        <v>0.9940054196034862</v>
+      </c>
+      <c r="E30">
+        <v>0.9960145498301628</v>
+      </c>
+      <c r="F30">
+        <v>0.9950011492249536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
         <v>43091</v>
       </c>
-      <c r="B30">
-        <v>0.9957367924254946</v>
-      </c>
-      <c r="C30">
-        <v>1.000406591787514</v>
-      </c>
-      <c r="D30">
-        <v>0.9971213837477525</v>
-      </c>
-      <c r="E30">
-        <v>1.000227550376737</v>
-      </c>
-      <c r="F30">
-        <v>0.9988806309578019</v>
+      <c r="B31">
+        <v>0.9918146421520064</v>
+      </c>
+      <c r="C31">
+        <v>0.9961532540516913</v>
+      </c>
+      <c r="D31">
+        <v>0.9937872014263442</v>
+      </c>
+      <c r="E31">
+        <v>0.9960112745627441</v>
+      </c>
+      <c r="F31">
+        <v>0.9948727203831755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B32">
+        <v>0.9915125980397267</v>
+      </c>
+      <c r="C32">
+        <v>0.996253842730115</v>
+      </c>
+      <c r="D32">
+        <v>0.9937172665568286</v>
+      </c>
+      <c r="E32">
+        <v>0.9956516369346315</v>
+      </c>
+      <c r="F32">
+        <v>0.99465988518332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B33">
+        <v>0.9928785680520661</v>
+      </c>
+      <c r="C33">
+        <v>0.9969315088127829</v>
+      </c>
+      <c r="D33">
+        <v>0.994474871553691</v>
+      </c>
+      <c r="E33">
+        <v>0.99708191630731</v>
+      </c>
+      <c r="F33">
+        <v>0.9958194030280872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B34">
+        <v>0.9912471104243992</v>
+      </c>
+      <c r="C34">
+        <v>0.9963538334061738</v>
+      </c>
+      <c r="D34">
+        <v>0.9933661384728281</v>
+      </c>
+      <c r="E34">
+        <v>0.9953346172574223</v>
+      </c>
+      <c r="F34">
+        <v>0.9944218994854603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B35">
+        <v>0.9923986427510948</v>
+      </c>
+      <c r="C35">
+        <v>0.9968775160440788</v>
+      </c>
+      <c r="D35">
+        <v>0.9941130914621813</v>
+      </c>
+      <c r="E35">
+        <v>0.9965167722756852</v>
+      </c>
+      <c r="F35">
+        <v>0.9953997743987661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B36">
+        <v>0.9934252145017931</v>
+      </c>
+      <c r="C36">
+        <v>0.9974607409350006</v>
+      </c>
+      <c r="D36">
+        <v>0.9948982250251149</v>
+      </c>
+      <c r="E36">
+        <v>0.9976501320309422</v>
+      </c>
+      <c r="F36">
+        <v>0.9963503943531573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B37">
+        <v>0.9957048184469225</v>
+      </c>
+      <c r="C37">
+        <v>0.9986228274398471</v>
+      </c>
+      <c r="D37">
+        <v>0.9966015520831787</v>
+      </c>
+      <c r="E37">
+        <v>0.9999572842646341</v>
+      </c>
+      <c r="F37">
+        <v>0.9983346286597994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B38">
+        <v>0.9971734652676124</v>
+      </c>
+      <c r="C38">
+        <v>0.9993348562476942</v>
+      </c>
+      <c r="D38">
+        <v>0.9975624065280432</v>
+      </c>
+      <c r="E38">
+        <v>1.001510007240863</v>
+      </c>
+      <c r="F38">
+        <v>0.9996114255244184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B39">
+        <v>0.997752088264491</v>
+      </c>
+      <c r="C39">
+        <v>0.9995106433081051</v>
+      </c>
+      <c r="D39">
+        <v>0.9978256878393404</v>
+      </c>
+      <c r="E39">
+        <v>1.002000927056053</v>
+      </c>
+      <c r="F39">
+        <v>1.000019547049153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B40">
+        <v>0.9978450468839547</v>
+      </c>
+      <c r="C40">
+        <v>0.9996726024822957</v>
+      </c>
+      <c r="D40">
+        <v>0.9981550163882928</v>
+      </c>
+      <c r="E40">
+        <v>1.00214745828638</v>
+      </c>
+      <c r="F40">
+        <v>1.000192432108113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B41">
+        <v>0.9989251477780345</v>
+      </c>
+      <c r="C41">
+        <v>1.000361053442772</v>
+      </c>
+      <c r="D41">
+        <v>0.9990934474895753</v>
+      </c>
+      <c r="E41">
+        <v>1.00327838152945</v>
+      </c>
+      <c r="F41">
+        <v>1.001198539351358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B42">
+        <v>1.000319676439468</v>
+      </c>
+      <c r="C42">
+        <v>1.001110764914186</v>
+      </c>
+      <c r="D42">
+        <v>1.000076718270661</v>
+      </c>
+      <c r="E42">
+        <v>1.004806544390048</v>
+      </c>
+      <c r="F42">
+        <v>1.002461425043454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B43">
+        <v>1.000578855350686</v>
+      </c>
+      <c r="C43">
+        <v>1.001105264051317</v>
+      </c>
+      <c r="D43">
+        <v>0.9999957079885501</v>
+      </c>
+      <c r="E43">
+        <v>1.004910645067132</v>
+      </c>
+      <c r="F43">
+        <v>1.002540091658608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B44">
+        <v>1.000529253119139</v>
+      </c>
+      <c r="C44">
+        <v>1.000954832256047</v>
+      </c>
+      <c r="D44">
+        <v>0.9997623280638858</v>
+      </c>
+      <c r="E44">
+        <v>1.004749453595142</v>
+      </c>
+      <c r="F44">
+        <v>1.002388028266148</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/净值.xlsx
+++ b/MVPLT/data/净值.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,19 +1260,239 @@
         <v>43111</v>
       </c>
       <c r="B44">
-        <v>1.000529253119139</v>
+        <v>1.000575480604633</v>
       </c>
       <c r="C44">
-        <v>1.000954832256047</v>
+        <v>1.001001287913633</v>
       </c>
       <c r="D44">
-        <v>0.9997623280638858</v>
+        <v>0.9997855015111691</v>
       </c>
       <c r="E44">
         <v>1.004749453595142</v>
       </c>
       <c r="F44">
-        <v>1.002388028266148</v>
+        <v>1.002409132401711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B45">
+        <v>1.001274956299294</v>
+      </c>
+      <c r="C45">
+        <v>1.001407100387624</v>
+      </c>
+      <c r="D45">
+        <v>1.000300436301685</v>
+      </c>
+      <c r="E45">
+        <v>1.005505001520215</v>
+      </c>
+      <c r="F45">
+        <v>1.003046931856444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B46">
+        <v>1.000580598289867</v>
+      </c>
+      <c r="C46">
+        <v>1.001198321701091</v>
+      </c>
+      <c r="D46">
+        <v>0.9997696007142389</v>
+      </c>
+      <c r="E46">
+        <v>1.004611774303085</v>
+      </c>
+      <c r="F46">
+        <v>1.002380639212742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B47">
+        <v>1.001392170305203</v>
+      </c>
+      <c r="C47">
+        <v>1.001455420653032</v>
+      </c>
+      <c r="D47">
+        <v>1.000298123406262</v>
+      </c>
+      <c r="E47">
+        <v>1.005361393740976</v>
+      </c>
+      <c r="F47">
+        <v>1.003011589054193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B48">
+        <v>1.00117592816718</v>
+      </c>
+      <c r="C48">
+        <v>1.001413526970826</v>
+      </c>
+      <c r="D48">
+        <v>1.000085592559605</v>
+      </c>
+      <c r="E48">
+        <v>1.005084858089392</v>
+      </c>
+      <c r="F48">
+        <v>1.002800428823464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B49">
+        <v>1.001714696320008</v>
+      </c>
+      <c r="C49">
+        <v>1.001501793650604</v>
+      </c>
+      <c r="D49">
+        <v>1.000246506451774</v>
+      </c>
+      <c r="E49">
+        <v>1.005482206559086</v>
+      </c>
+      <c r="F49">
+        <v>1.003124155251932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B50">
+        <v>1.001760119293433</v>
+      </c>
+      <c r="C50">
+        <v>1.001523360951895</v>
+      </c>
+      <c r="D50">
+        <v>1.000343441190599</v>
+      </c>
+      <c r="E50">
+        <v>1.00547627797144</v>
+      </c>
+      <c r="F50">
+        <v>1.003151339984434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B51">
+        <v>1.003872718516503</v>
+      </c>
+      <c r="C51">
+        <v>1.002527954569776</v>
+      </c>
+      <c r="D51">
+        <v>1.0018084302032</v>
+      </c>
+      <c r="E51">
+        <v>1.007615850874924</v>
+      </c>
+      <c r="F51">
+        <v>1.004956326336112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B52">
+        <v>1.00548338219456</v>
+      </c>
+      <c r="C52">
+        <v>1.003273665995475</v>
+      </c>
+      <c r="D52">
+        <v>1.002886191258485</v>
+      </c>
+      <c r="E52">
+        <v>1.009311617516424</v>
+      </c>
+      <c r="F52">
+        <v>1.006350743535611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B53">
+        <v>1.006684435615491</v>
+      </c>
+      <c r="C53">
+        <v>1.00396953618442</v>
+      </c>
+      <c r="D53">
+        <v>1.003723481553246</v>
+      </c>
+      <c r="E53">
+        <v>1.010648524227188</v>
+      </c>
+      <c r="F53">
+        <v>1.007454877856027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B54">
+        <v>1.006159285145423</v>
+      </c>
+      <c r="C54">
+        <v>1.003884422668577</v>
+      </c>
+      <c r="D54">
+        <v>1.003485163057461</v>
+      </c>
+      <c r="E54">
+        <v>1.01012200278133</v>
+      </c>
+      <c r="F54">
+        <v>1.007061730595846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B55">
+        <v>1.00692181143889</v>
+      </c>
+      <c r="C55">
+        <v>1.004285810856651</v>
+      </c>
+      <c r="D55">
+        <v>1.004035583687176</v>
+      </c>
+      <c r="E55">
+        <v>1.010990596947055</v>
+      </c>
+      <c r="F55">
+        <v>1.007767759301968</v>
       </c>
     </row>
   </sheetData>
